--- a/radio/copy.xlsx
+++ b/radio/copy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -128,40 +128,61 @@
     <t>The fourth album among the album images and song contents produced by the Radio Optimism Station.</t>
   </si>
   <si>
+    <t>Audio player:Beam of Positivity</t>
+  </si>
+  <si>
     <t>Beam of Positivity</t>
   </si>
   <si>
     <t>By LG</t>
   </si>
   <si>
+    <t>Audio player: Keep Swimming</t>
+  </si>
+  <si>
     <t>Keep Swimming</t>
   </si>
   <si>
     <t>By Mom</t>
   </si>
   <si>
+    <t>Audio player: The Tale of Optimistic Toby</t>
+  </si>
+  <si>
     <t>The Tale of Optimistic Toby</t>
   </si>
   <si>
     <t>By Kyle</t>
   </si>
   <si>
+    <t>Audio player: My Dad, My Hero</t>
+  </si>
+  <si>
     <t>My Dad, My Hero</t>
   </si>
   <si>
     <t>By Cam</t>
   </si>
   <si>
+    <t>Audio player: Carpool Hero</t>
+  </si>
+  <si>
     <t>Carpool Hero</t>
   </si>
   <si>
     <t>By Tina</t>
   </si>
   <si>
+    <t>Audio player: Loving Life with my Beautiful Wife</t>
+  </si>
+  <si>
     <t>Loving Life with my Beautiful Wife</t>
   </si>
   <si>
     <t>By Devan</t>
+  </si>
+  <si>
+    <t>Audio player: Spreading Joy, Spreading Light</t>
   </si>
   <si>
     <t>Spreading Joy, Spreading Light</t>
@@ -625,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B97"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -674,50 +695,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,15 +746,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,23 +770,23 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,23 +794,23 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,23 +818,23 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,23 +842,23 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,15 +874,15 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,26 +991,26 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,23 +1026,23 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,23 +1058,23 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,31 +1090,31 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,31 +1122,31 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,23 +1154,23 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,23 +1186,23 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,23 +1210,23 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,39 +1250,39 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,15 +1290,15 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1306,127 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
